--- a/Documents/chromeEmulatorTest_PICT003.xlsx
+++ b/Documents/chromeEmulatorTest_PICT003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\PlanisphereTestByMobileEmulation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9867B3C8-F5C3-4A9A-BC0B-070C984C4580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75995AEB-4FA4-4901-BDA8-107FA030A863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="200">
   <si>
     <t>UserType</t>
   </si>
@@ -784,6 +784,10 @@
     <t>BlackBerryPlayBook</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>TC074</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -1504,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1570,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5858,7 +5865,7 @@
         <v>213000</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5960,51 +5967,54 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="2">
         <v>5</v>
       </c>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="16" t="s">
+      <c r="M41" s="2"/>
+      <c r="N41" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="P41" s="5" t="s">
+      <c r="O41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="2">
         <f t="shared" si="2"/>
         <v>61000</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="T41">
@@ -6159,7 +6169,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -6658,7 +6668,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -7059,7 +7069,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -7358,7 +7368,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
@@ -7659,7 +7669,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -7962,7 +7972,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -8165,7 +8175,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -8464,7 +8474,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -8763,7 +8773,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
@@ -9362,7 +9372,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -9763,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
@@ -10164,7 +10174,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -10663,7 +10673,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
@@ -10858,7 +10868,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
@@ -11149,7 +11159,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -11536,7 +11546,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
@@ -12019,7 +12029,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
@@ -12310,7 +12320,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
@@ -12697,7 +12707,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -12988,7 +12998,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -13279,7 +13289,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
@@ -13666,7 +13676,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -13957,7 +13967,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
@@ -14152,7 +14162,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
@@ -14347,7 +14357,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>8</v>
@@ -14446,7 +14456,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
@@ -14833,7 +14843,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
@@ -15028,7 +15038,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
@@ -15319,7 +15329,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
@@ -15706,7 +15716,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>8</v>
@@ -15805,7 +15815,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
@@ -16384,7 +16394,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>8</v>
@@ -16579,7 +16589,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>8</v>
@@ -16774,7 +16784,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
@@ -16969,7 +16979,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
@@ -17164,7 +17174,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>8</v>
@@ -17359,7 +17369,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>8</v>
@@ -17554,7 +17564,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>11</v>
@@ -17845,7 +17855,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>11</v>
@@ -18328,7 +18338,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>11</v>
@@ -18523,7 +18533,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>11</v>
@@ -18910,7 +18920,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>11</v>
@@ -19297,7 +19307,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>11</v>
@@ -19492,7 +19502,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>11</v>
@@ -19879,7 +19889,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>11</v>
@@ -20170,7 +20180,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>11</v>
@@ -20461,7 +20471,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>11</v>
@@ -20944,7 +20954,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>11</v>
@@ -20990,7 +21000,7 @@
         <v>16</v>
       </c>
       <c r="T194">
-        <f t="shared" ref="T194:T257" si="21">V194-U194</f>
+        <f t="shared" ref="T194:T254" si="21">V194-U194</f>
         <v>3</v>
       </c>
       <c r="U194">
@@ -21018,7 +21028,7 @@
         <v>10000</v>
       </c>
       <c r="AC194">
-        <f t="shared" ref="AC194:AC257" si="22">AB194*1.25</f>
+        <f t="shared" ref="AC194:AC254" si="22">AB194*1.25</f>
         <v>12500</v>
       </c>
       <c r="AD194">
@@ -21331,7 +21341,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>11</v>
@@ -21814,7 +21824,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>11</v>
@@ -22489,7 +22499,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C210" s="10" t="s">
         <v>11</v>
@@ -22972,7 +22982,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>11</v>
@@ -23359,7 +23369,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>11</v>
@@ -23650,7 +23660,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>11</v>
@@ -24229,7 +24239,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>11</v>
@@ -24424,7 +24434,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>11</v>
@@ -24907,7 +24917,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>11</v>
@@ -25486,7 +25496,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>11</v>
@@ -25777,7 +25787,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>11</v>
@@ -26164,7 +26174,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>11</v>
@@ -26551,7 +26561,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>11</v>
@@ -26871,5 +26881,6 @@
     <hyperlink ref="N85" r:id="rId26" display="nobuko@example.com" xr:uid="{39522A9E-59A8-4D2E-95F2-973F4D688D47}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Documents/chromeEmulatorTest_PICT003.xlsx
+++ b/Documents/chromeEmulatorTest_PICT003.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\PlanisphereTestByMobileEmulation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75995AEB-4FA4-4901-BDA8-107FA030A863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5BFBA-A502-42D9-92FF-521B90BB61F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="5604" windowWidth="22740" windowHeight="6708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="201">
   <si>
     <t>UserType</t>
   </si>
@@ -786,6 +787,10 @@
   </si>
   <si>
     <t>TC074</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TC075</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1933,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
@@ -22597,6 +22602,9 @@
       <c r="A211">
         <v>210</v>
       </c>
+      <c r="B211" t="s">
+        <v>133</v>
+      </c>
       <c r="C211" s="1" t="s">
         <v>11</v>
       </c>
@@ -22982,7 +22990,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>11</v>
@@ -23369,7 +23377,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>11</v>
@@ -23660,7 +23668,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>11</v>
@@ -24239,7 +24247,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>11</v>
@@ -24434,7 +24442,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>11</v>
@@ -24917,7 +24925,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>11</v>
@@ -25496,7 +25504,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>11</v>
@@ -25787,7 +25795,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>11</v>
@@ -26174,7 +26182,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>11</v>
@@ -26561,7 +26569,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>11</v>
